--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="addCusttest" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>fname</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>sat1</t>
+  </si>
+  <si>
+    <t>Custmer added successfully</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,9 +513,26 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -570,7 +590,7 @@
     <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>CONCATENATE(addCusttest!A4," ",addCusttest!B4)</f>
-        <v xml:space="preserve"> </v>
+        <v>ja1 sat</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
